--- a/一周详餐.xlsx
+++ b/一周详餐.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/一周详餐.xlsx
+++ b/一周详餐.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/一周详餐.xlsx
+++ b/一周详餐.xlsx
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
